--- a/public/storage/excel/samplesData.xlsx
+++ b/public/storage/excel/samplesData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DD402-94C8-402D-9174-5249BB35506C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44881E-F4B1-4F85-8DEA-EF8DAF35B207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>السنة</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>انس محتسب</t>
+  </si>
+  <si>
+    <t>الجنس</t>
+  </si>
+  <si>
+    <t>ذكر</t>
   </si>
 </sst>
 </file>
@@ -375,21 +381,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,22 +407,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -425,19 +435,22 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>111000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2222</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11001</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
